--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/wf.dict.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/wf.dict.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E818A5C-2B2F-5142-A347-A946C948B60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CA7620-5B0B-6144-A3FD-3B8E8CCF3DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="69380" yWindow="-9220" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -828,7 +828,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -908,19 +908,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5">
-        <v>1020</v>
+        <v>3005</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -928,19 +928,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="5">
-        <v>1035</v>
+        <v>3010</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -948,19 +948,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="5">
-        <v>1040</v>
+        <v>3015</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -968,19 +968,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C8" s="5">
-        <v>1045</v>
+        <v>1020</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
